--- a/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766321</v>
+        <v>766324</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429208827</v>
+        <v>1429216555</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71271</v>
+        <v>71273</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110302626</v>
+        <v>110303186</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>145228</v>
+        <v>145229</v>
       </c>
       <c r="D112" t="n">
         <v>27839</v>
       </c>
       <c r="E112" t="n">
-        <v>716164561</v>
+        <v>716363014</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306243</v>
+        <v>1306258</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2274996992</v>
+        <v>2275040173</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633558</v>
+        <v>633579</v>
       </c>
       <c r="D129" t="n">
         <v>104967</v>
       </c>
       <c r="E129" t="n">
-        <v>3430650759</v>
+        <v>3430952857</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585820</v>
+        <v>585833</v>
       </c>
       <c r="D132" t="n">
         <v>90782</v>
       </c>
       <c r="E132" t="n">
-        <v>3467040660</v>
+        <v>3467413781</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25080</v>
+        <v>25081</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92483431</v>
+        <v>92485718</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7440</v>
+        <v>7441</v>
       </c>
       <c r="D146" t="n">
         <v>1667</v>
       </c>
       <c r="E146" t="n">
-        <v>37684204</v>
+        <v>37756696</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39931</v>
+        <v>39933</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60378307</v>
+        <v>60385247</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>515878</v>
+        <v>515880</v>
       </c>
       <c r="D178" t="n">
         <v>115380</v>
       </c>
       <c r="E178" t="n">
-        <v>891190220</v>
+        <v>891193220</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
